--- a/Datos/fake_users/user1_amigos.xlsx
+++ b/Datos/fake_users/user1_amigos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Desktop\Curso 5\Cuatri I\DAV\dav_project\datos\fake_users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802B1B20-3F5C-4626-AAAC-EEEE3BCCE745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E459BCE6-D069-4B9C-92A7-3EC85E1A7F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Amigo</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>user2</t>
-  </si>
-  <si>
-    <t>Fecha_calculo</t>
   </si>
 </sst>
 </file>
@@ -360,21 +357,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,23 +378,20 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
       <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
         <v>1</v>
       </c>
     </row>
